--- a/data/income_statement/2digits/size/03_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/03_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>03-Fishing and aquaculture</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>03-Fishing and aquaculture</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,530 +841,600 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>181187.57105</v>
+        <v>196722.30935</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>203948.01514</v>
+        <v>213452.60811</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>199585.62131</v>
+        <v>215959.43162</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>221727.17723</v>
+        <v>250220.81331</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>347956.69326</v>
+        <v>406619.12669</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>349120.96669</v>
+        <v>388152.56929</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>406540.56727</v>
+        <v>426411.16938</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>322662.22289</v>
+        <v>402960.38666</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>437753.02781</v>
+        <v>474697.21423</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>845209.1804600001</v>
+        <v>891401.0096399999</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>919641.1894</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1117607.56095</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1276496.741</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>137233.83392</v>
+        <v>152747.41563</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>164778.01888</v>
+        <v>174331.36981</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>145523.76347</v>
+        <v>159564.04784</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>201417.16641</v>
+        <v>226247.28004</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>296852.62468</v>
+        <v>353467.51284</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>289805.12093</v>
+        <v>324520.36002</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>331971.55032</v>
+        <v>350959.8194099999</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>264645.65672</v>
+        <v>299573.55965</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>385432.80157</v>
+        <v>418321.97632</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>686911.10203</v>
+        <v>726524.2659100001</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>802474.45689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>930105.87885</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1048172.543</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>33443.26164</v>
+        <v>33499.3766</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>28551.23953</v>
+        <v>28692.91991</v>
       </c>
       <c r="E7" s="48" t="n">
         <v>45447.19334000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>8871.667009999999</v>
+        <v>8844.69795</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>38928.81198</v>
+        <v>38653.23947</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>50147.79145</v>
+        <v>52769.172</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>65111.61118</v>
+        <v>65206.39178</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>51441.73091000001</v>
+        <v>94017.66411000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>42610.62772</v>
+        <v>46518.40351</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>140978.50014</v>
+        <v>147884.25705</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>105494.46287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>174922.40052</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>206464.641</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>10510.47549</v>
+        <v>10475.51712</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>10618.75673</v>
+        <v>10428.31839</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>8614.664500000001</v>
+        <v>10948.19044</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>11438.34381</v>
+        <v>15128.83532</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>12175.2566</v>
+        <v>14498.37438</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>9168.054310000001</v>
+        <v>10863.03727</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>9457.405769999999</v>
+        <v>10244.95819</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>6574.83526</v>
+        <v>9369.162900000001</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>9709.59852</v>
+        <v>9856.8344</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>17319.57829</v>
+        <v>16992.48668</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>11672.26964</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>12579.28158</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>21859.557</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>1917.267</v>
+        <v>2081.82246</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1029.01706</v>
+        <v>1116.18446</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>292.2616</v>
+        <v>590.57748</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>501.17769</v>
+        <v>596.77559</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1528.43945</v>
+        <v>2120.63558</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>500.2782099999999</v>
+        <v>754.95052</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>211.52691</v>
+        <v>230.79932</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>555.7704</v>
+        <v>1192.64695</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11007.46714</v>
+        <v>10993.60975</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>13518.57458</v>
+        <v>11966.70591</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>5354.315390000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>9131.010870000002</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15150.304</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>1797.48398</v>
+        <v>1825.17298</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1005.6078</v>
+        <v>978.6422700000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>233.7473</v>
+        <v>151.42859</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>451.4898</v>
+        <v>522.6599200000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1370.88418</v>
+        <v>1944.97477</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>422.48459</v>
+        <v>566.09462</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>205.40644</v>
+        <v>211.18813</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>344.2171999999999</v>
+        <v>1019.06624</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>10843.00846</v>
+        <v>10836.0585</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>12602.35559</v>
+        <v>11049.9761</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>4610.86545</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8375.11022</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>13333.428</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>0.2625</v>
+        <v>137.12896</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>19.49533</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>28.54447</v>
+        <v>409.17906</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>45.81376</v>
+        <v>70.12573</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>31.64191</v>
+        <v>49.74745</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6.27375</v>
+        <v>11.67242</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>0</v>
+        <v>13.49072</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>152.99351</v>
+        <v>102.68528</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>23.79582</v>
+        <v>16.88839</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>291.15396</v>
+        <v>297.92851</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>151.20771</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>163.65842</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>501.03</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>119.52052</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>3.91393</v>
+        <v>118.04686</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>29.96983</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>3.87413</v>
+        <v>3.98994</v>
       </c>
       <c r="G12" s="48" t="n">
         <v>125.91336</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>71.51987</v>
+        <v>177.18348</v>
       </c>
       <c r="I12" s="48" t="n">
         <v>6.120469999999999</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>58.55969</v>
+        <v>70.89542999999999</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>140.66286</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>625.06503</v>
+        <v>618.8013000000001</v>
       </c>
       <c r="M12" s="48" t="n">
         <v>592.2422299999999</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="48" t="n">
+        <v>1315.846</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>179270.30405</v>
+        <v>194640.48689</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>202918.99808</v>
+        <v>212336.42365</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>199293.35971</v>
+        <v>215368.85414</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>221225.99954</v>
+        <v>249624.03772</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>346428.25381</v>
+        <v>404498.49111</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>348620.68848</v>
+        <v>387397.61877</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>406329.04036</v>
+        <v>426180.37006</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>322106.45249</v>
+        <v>401767.7397100001</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>426745.56067</v>
+        <v>463703.60448</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>831690.60588</v>
+        <v>879434.30373</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>914286.87401</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1108476.55008</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1261346.437</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>146095.15348</v>
+        <v>162606.18508</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>163999.09684</v>
+        <v>173786.52327</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>164560.59498</v>
+        <v>179279.59265</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>185965.42085</v>
+        <v>208263.01915</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>290555.89478</v>
+        <v>343182.36527</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>295987.9012</v>
+        <v>328896.1144</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>353340.60431</v>
+        <v>370112.29534</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>277706.95261</v>
+        <v>349927.76734</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>369306.42551</v>
+        <v>395081.25786</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>697831.45231</v>
+        <v>738069.5448299999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>778560.5199300001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>951857.99699</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1085964.189</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>63764.71038</v>
+        <v>75933.88767</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>87905.52548000001</v>
+        <v>95913.09122</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>71132.61474999999</v>
+        <v>84597.24002000001</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>91153.34546</v>
+        <v>111290.71767</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>122509.00399</v>
+        <v>158542.22808</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>115991.56696</v>
+        <v>127510.31687</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>153422.69484</v>
+        <v>159947.72446</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>106412.30727</v>
+        <v>129713.37237</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>167019.0311</v>
+        <v>176424.51682</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>288598.35347</v>
+        <v>313717.46807</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>320568.52241</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>389074.53715</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>525188.754</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>73720.68648</v>
+        <v>77672.34409999999</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>67761.41497</v>
+        <v>68940.84827</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>82583.03771999999</v>
+        <v>80431.83189</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>80630.51717000001</v>
+        <v>82343.05175</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>155822.27971</v>
+        <v>172276.72524</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>162379.57383</v>
+        <v>182178.21779</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>181596.67805</v>
+        <v>192368.80066</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>148737.79795</v>
+        <v>196587.57754</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>173950.67685</v>
+        <v>184790.64123</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>359951.61761</v>
+        <v>375551.8977</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>412928.81062</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>503658.71431</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>494703.648</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>7400.36705</v>
+        <v>7365.65357</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>7151.49279</v>
+        <v>7806.789400000001</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>9079.56162</v>
+        <v>10386.35624</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>11643.77746</v>
+        <v>12091.46897</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>9613.778719999998</v>
+        <v>9752.579589999999</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>13278.97469</v>
+        <v>14651.88799</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>12863.52274</v>
+        <v>12408.06154</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>15922.54569</v>
+        <v>16966.38237</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>21191.50667</v>
+        <v>24544.93276</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>41421.57509000001</v>
+        <v>40940.27292</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>40990.92553</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>49785.02916</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>45648.869</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>1209.38957</v>
+        <v>1634.29974</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>1180.6636</v>
+        <v>1125.79438</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>1765.38089</v>
+        <v>3864.1645</v>
       </c>
       <c r="F18" s="48" t="n">
         <v>2537.78076</v>
@@ -1472,115 +1443,130 @@
         <v>2610.83236</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>4337.78572</v>
+        <v>4555.69175</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>5457.708680000001</v>
+        <v>5387.708680000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>6634.3017</v>
+        <v>6660.43506</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>7145.210889999999</v>
+        <v>9321.16705</v>
       </c>
       <c r="L18" s="48" t="n">
         <v>7859.906140000001</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>4072.26137</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>9339.716369999998</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>20422.918</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>33175.15057</v>
+        <v>32034.30181</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>38919.90124</v>
+        <v>38549.90038</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>34732.76473</v>
+        <v>36089.26149</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>35260.57868999999</v>
+        <v>41361.01857</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>55872.35903</v>
+        <v>61316.12584</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>52632.78728</v>
+        <v>58501.50437</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>52988.43605</v>
+        <v>56068.07472</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>44399.49988</v>
+        <v>51839.97237</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>57439.13516</v>
+        <v>68622.34662000001</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>133859.15357</v>
+        <v>141364.7589</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>135726.35408</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>156618.55309</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>175382.248</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>19958.69863</v>
+        <v>19891.49109</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>25509.52914</v>
+        <v>25254.71621</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>23467.35296</v>
+        <v>24838.52519</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>26536.15751</v>
+        <v>29120.9712</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>41253.8102</v>
+        <v>42727.02091</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>39340.14936</v>
+        <v>41089.7367</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>36824.70689</v>
+        <v>37068.52561</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>37772.63701999999</v>
+        <v>41308.66221</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>50626.16836</v>
+        <v>57829.20847999999</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>87146.96016</v>
+        <v>91042.71547</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>93637.54263</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>105376.87327</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>133640.547</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>0.5</v>
+        <v>46.519</v>
       </c>
       <c r="E21" s="48" t="n">
-        <v>112.72584</v>
+        <v>95.84524999999999</v>
       </c>
       <c r="F21" s="48" t="n">
         <v>158.84687</v>
@@ -1589,13 +1575,13 @@
         <v>211.66002</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>326.14025</v>
+        <v>292.63193</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>285.97092</v>
+        <v>108.55198</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>673.98438</v>
+        <v>620.11428</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>6.76829</v>
@@ -1604,169 +1590,194 @@
         <v>30.93872</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>207.59656</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>43.21088</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>631.722</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>3809.88165</v>
+        <v>4327.742429999999</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4492.16295</v>
+        <v>5149.36387</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4373.30556</v>
+        <v>4392.39537</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>6561.86732</v>
+        <v>6759.88824</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8007.74189</v>
+        <v>10398.82201</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>8473.88658</v>
+        <v>9013.047960000002</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>9337.85548</v>
+        <v>9411.217710000001</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>8557.582490000001</v>
+        <v>11026.33769</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>9600.17042</v>
+        <v>12411.46103</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>20345.77687</v>
+        <v>24376.25256</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20286.74779</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>25221.65205</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>25696.613</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>16148.81698</v>
+        <v>15563.74866</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>21016.86619</v>
+        <v>20058.83334</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>18981.32156</v>
+        <v>20350.28457</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>19815.44332</v>
+        <v>22202.23609</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>33034.40829</v>
+        <v>32116.53888</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>30540.12253</v>
+        <v>31784.05681</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>27200.88049</v>
+        <v>27548.75592</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>28541.07015</v>
+        <v>29662.21024</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>41019.22965</v>
+        <v>45410.97916</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>66770.24457</v>
+        <v>66635.52419</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>73143.19828</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>80112.01034000001</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>107312.212</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>13216.45194</v>
+        <v>12142.81072</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>13410.3721</v>
+        <v>13295.18417</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>11265.41177</v>
+        <v>11250.7363</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>8724.421179999999</v>
+        <v>12240.04737</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>14618.54883</v>
+        <v>18589.10493</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>13292.63792</v>
+        <v>17411.76767</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>16163.72916</v>
+        <v>18999.54911</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>6626.862859999999</v>
+        <v>10531.31016</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>6812.9668</v>
+        <v>10793.13814</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>46712.19341000001</v>
+        <v>50322.04343</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>42088.81145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>51241.67982</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>41741.701</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2212.44128</v>
+        <v>3498.73135</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2046.99987</v>
+        <v>1785.28281</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>1849.86303</v>
+        <v>3135.79675</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2421.81833</v>
+        <v>3621.19664</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>5572.91867</v>
+        <v>8812.75124</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>4317.09444</v>
+        <v>3228.84425</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>6043.10225</v>
+        <v>5637.3747</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>4475.10407</v>
+        <v>4856.1666</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>8655.692590000001</v>
+        <v>8921.551530000001</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>30956.61135</v>
+        <v>26453.30617</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>21355.93356</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>22141.33447</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>35690.472</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
@@ -1790,7 +1801,7 @@
         <v>0</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>0</v>
+        <v>17.47548</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>0</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1840,53 +1856,63 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>318.57545</v>
+        <v>296.81104</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>206.54103</v>
+        <v>209.05529</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>94.44448999999999</v>
+        <v>173.62303</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>66.99736999999999</v>
+        <v>631.6045399999999</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>328.7786600000001</v>
+        <v>4992.13137</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>137.88697</v>
+        <v>176.89498</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>727.2775</v>
+        <v>575.4330600000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>257.21554</v>
+        <v>356.95364</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>332.28405</v>
+        <v>564.8305700000001</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>1050.39956</v>
+        <v>1029.38474</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>990.9453000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>843.6764000000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>883.523</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>49.50037</v>
+        <v>0</v>
       </c>
       <c r="D29" s="48" t="n">
         <v>22.03876</v>
@@ -1895,10 +1921,10 @@
         <v>201.90665</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>763.3440400000001</v>
+        <v>134</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>367.62109</v>
+        <v>25.52355</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>30.497</v>
@@ -1910,70 +1936,80 @@
         <v>65.3516</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>56.39171</v>
+        <v>76.39170999999999</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>457.27986</v>
+        <v>455.0917</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>36.89792</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>39.05269999999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>19.265</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>0.39472</v>
+        <v>0</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>0</v>
+        <v>0.0005</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>1925.04</v>
+        <v>75.19725</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>1891.04</v>
+        <v>463.2911</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>1871.04</v>
+        <v>691.0323100000001</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>1850.04</v>
+        <v>0</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>947.34</v>
+        <v>934.3795</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>2666.38647</v>
+        <v>90.64518</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>3139.80994</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>111.61423</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>96.46899999999999</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>1.03204</v>
+        <v>1.32803</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>0.89398</v>
+        <v>0.89135</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3.48557</v>
+        <v>2.4993</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>61.64575</v>
+        <v>61.56301999999999</v>
       </c>
       <c r="G31" s="48" t="n">
         <v>71.53807</v>
@@ -1982,64 +2018,74 @@
         <v>0.0048</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>11.48366</v>
+        <v>10.45062</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>4.04564</v>
+        <v>192.37511</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>0.01136</v>
+        <v>135.04768</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>231.63089</v>
+        <v>249.21636</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>380.24482</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>381.87703</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>12.928</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>729.1471899999999</v>
+        <v>1534.90289</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1471.7694</v>
+        <v>1462.24045</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1218.67213</v>
+        <v>1461.72538</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>392.3092</v>
+        <v>508.54314</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>1017.49073</v>
+        <v>1103.07646</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>906.4058899999999</v>
+        <v>1304.72711</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>2425.12901</v>
+        <v>3644.555139999999</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1394.06888</v>
+        <v>2591.8078</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>1765.12151</v>
+        <v>2185.88922</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>25981.30244</v>
+        <v>22568.34236</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>10906.60976</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>14410.69</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>32545.648</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2054,7 +2100,7 @@
         <v>0</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>0</v>
+        <v>160.03817</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>0</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>68.64567</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,182 +2164,207 @@
       <c r="M34" s="48" t="n">
         <v>0.1067</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>1114.18623</v>
+        <v>1665.68939</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>345.36198</v>
+        <v>91.05696</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>331.35419</v>
+        <v>1296.04239</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>1137.52197</v>
+        <v>2285.48544</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>1862.45012</v>
+        <v>2385.24637</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1028.23861</v>
+        <v>930.40809</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>963.1466799999999</v>
+        <v>670.8781700000001</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>904.3824099999999</v>
+        <v>1632.20297</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>5554.54396</v>
+        <v>5025.01285</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>569.6121300000001</v>
+        <v>2060.62583</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5832.67345</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>6285.67174</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>2132.639</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>4518.60561</v>
+        <v>4744.31829</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2677.49712</v>
+        <v>2696.02791</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2579.1135</v>
+        <v>4445.5244</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1072.03938</v>
+        <v>1098.61577</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>7019.31417</v>
+        <v>5937.232140000001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3296.85838</v>
+        <v>4281.60208</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>5341.24451</v>
+        <v>5744.833009999999</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1931.67986</v>
+        <v>3105.14482</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>4298.26039</v>
+        <v>4623.65296</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>29859.16498</v>
+        <v>27442.15364</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>17001.85752</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>19554.75309</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>43684.189</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>39.45913</v>
+        <v>37.61243</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>105.4542</v>
+        <v>60.93263</v>
       </c>
       <c r="E37" s="48" t="n">
         <v>108.27128</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>344.12014</v>
+        <v>303.30488</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>325.60913</v>
+        <v>222.25867</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>212.20579</v>
+        <v>167.85517</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>252.05681</v>
+        <v>212.07647</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>249.70763</v>
+        <v>188.81952</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>236.22653</v>
+        <v>247.39797</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>460.8438899999999</v>
+        <v>357.36269</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>161.73325</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>162.98652</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>191.994</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>159.685</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>226.10032</v>
+        <v>495.15814</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>9.5</v>
+        <v>415.047</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>9.300000000000001</v>
+        <v>194.30044</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>130</v>
+        <v>158.03571</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>602.7100899999999</v>
+        <v>930.68088</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1526.8088</v>
+        <v>1794.03862</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>6.566529999999999</v>
+        <v>0</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>1974.67139</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3870.43741</v>
+        <v>505.18736</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1465.50864</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1496.03636</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>123.394</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>44.19386</v>
+        <v>0</v>
       </c>
       <c r="D39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>0</v>
+        <v>1116.63</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>3.85505</v>
+        <v>3.77478</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>0.80837</v>
@@ -2300,58 +2376,68 @@
         <v>0</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>0</v>
+        <v>8.06864</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>0</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1194.80831</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1580.43415</v>
+        <v>1832.80071</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1463.6539</v>
+        <v>1460.24931</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1836.17229</v>
+        <v>2151.31531</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>348.62706</v>
+        <v>410.25635</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2178.10158</v>
+        <v>3883.00483</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>1056.14715</v>
+        <v>1265.86229</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>2033.24095</v>
+        <v>2284.51054</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1205.17222</v>
+        <v>2446.09178</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>1504.41532</v>
+        <v>1649.70874</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>24986.15042</v>
+        <v>24218.85931</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>12508.59709</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>15930.38903</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>39719.517</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2363,7 +2449,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
-        <v>27.01651</v>
+        <v>0</v>
       </c>
       <c r="G41" s="48" t="n">
         <v>2.00228</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>68.646</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2417,7 +2508,7 @@
         <v>0</v>
       </c>
       <c r="K42" s="48" t="n">
-        <v>0</v>
+        <v>12.15194</v>
       </c>
       <c r="L42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2694.83347</v>
+        <v>2714.22015</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>882.2886999999999</v>
+        <v>679.68783</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>625.1699299999999</v>
+        <v>654.26081</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>342.97567</v>
+        <v>190.7541</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>4379.74613</v>
+        <v>1668.15587</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>1424.98698</v>
+        <v>1916.39537</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>1529.13795</v>
+        <v>1454.20738</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>470.23348</v>
+        <v>470.23352</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>582.7909100000001</v>
+        <v>731.4980400000001</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>541.73326</v>
+        <v>2360.74428</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1671.21023</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1965.34118</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>3580.638</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>4870.735809999999</v>
+        <v>6286.63434</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>2523.93837</v>
+        <v>3699.43406</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1421.24872</v>
+        <v>2065.46968</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3037.09161</v>
+        <v>4246.92083</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>6013.01878</v>
+        <v>7881.94897</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>7470.580730000001</v>
+        <v>9076.886560000001</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6665.203300000001</v>
+        <v>7396.08834</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>3640.35348</v>
+        <v>5848.13402</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>5711.322200000001</v>
+        <v>7357.549919999999</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>12551.21899</v>
+        <v>13111.99188</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>10235.89606</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>10581.81473</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15353.673</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>4727.5398</v>
+        <v>6143.43833</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>2394.63009</v>
+        <v>3570.12578</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1335.87608</v>
+        <v>1980.09704</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2853.3058</v>
+        <v>4071.51601</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>5799.630220000001</v>
+        <v>7751.70387</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>7275.496939999999</v>
+        <v>8894.594399999998</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6269.394740000001</v>
+        <v>7059.36622</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>3341.62959</v>
+        <v>5597.2754</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>5354.74156</v>
+        <v>7113.49108</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>11883.23176</v>
+        <v>12444.00465</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>8158.103929999999</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8504.0226</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13838.462</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>143.19601</v>
@@ -2558,22 +2669,22 @@
         <v>85.37264</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>183.78581</v>
+        <v>175.40482</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>213.38856</v>
+        <v>130.2451</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>195.08379</v>
+        <v>182.29216</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>395.8085600000001</v>
+        <v>336.72212</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>298.72389</v>
+        <v>250.85862</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>356.58064</v>
+        <v>244.05884</v>
       </c>
       <c r="L46" s="48" t="n">
         <v>667.98723</v>
@@ -2581,98 +2692,113 @@
       <c r="M46" s="48" t="n">
         <v>2077.79213</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>1515.211</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>6039.5518</v>
+        <v>4610.58944</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>10255.93648</v>
+        <v>8685.005009999999</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9114.91258</v>
+        <v>7875.538970000001</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>7037.10852</v>
+        <v>10515.70741</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>7159.134550000001</v>
+        <v>13582.67506</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>6842.29325</v>
+        <v>7282.123280000001</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>10200.3836</v>
+        <v>11496.00246</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>5529.93359</v>
+        <v>6434.19792</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>5459.0768</v>
+        <v>7733.48679</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>35258.42079</v>
+        <v>36221.20408</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>36206.99143</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>43246.44647</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>18394.311</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>2729.18727</v>
+        <v>2139.77039</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>1946.33408</v>
+        <v>2012.52377</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>2170.82396</v>
+        <v>2815.84586</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>2388.80056</v>
+        <v>3067.41984</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>3863.9226</v>
+        <v>3857.06394</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>5559.36603</v>
+        <v>5718.30984</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>5128.25493</v>
+        <v>3903.17177</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4457.02658</v>
+        <v>4577.648200000001</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4163.05132</v>
+        <v>5270.71107</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>7688.569630000001</v>
+        <v>7506.736279999999</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>9044.49159</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>10071.58082</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>14435.681</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>480.94</v>
+        <v>1</v>
       </c>
       <c r="D49" s="48" t="n">
         <v>2.17883</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>0</v>
+        <v>0.02451</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>0</v>
@@ -2687,127 +2813,142 @@
         <v>36.40014</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>10.339</v>
+        <v>0</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>1.86997</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>20.53227</v>
+        <v>54.62115</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>75.24254000000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>68.28016000000001</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>56.218</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>2248.24727</v>
+        <v>2138.77039</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>1944.15525</v>
+        <v>2010.34494</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>2170.82396</v>
+        <v>2815.82135</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>2388.80056</v>
+        <v>3067.41984</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3852.4696</v>
+        <v>3845.61094</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>5494.36603</v>
+        <v>5653.30984</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5091.85479</v>
+        <v>3866.77163</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4446.68758</v>
+        <v>4577.648200000001</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4161.181350000001</v>
+        <v>5268.8411</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>7668.037359999999</v>
+        <v>7452.115130000001</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>8969.24905</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>10003.30066</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>14379.463</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2510.54615</v>
+        <v>992.9522099999999</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>1390.39941</v>
+        <v>1077.24423</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>5738.01784</v>
+        <v>6491.34697</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>993.15252</v>
+        <v>1237.05241</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>3161.68374</v>
+        <v>3948.07482</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>4690.92899</v>
+        <v>3932.14789</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>2815.88871</v>
+        <v>1919.73892</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>4760.67442</v>
+        <v>4925.013720000001</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>3025.43683</v>
+        <v>3973.65958</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>4147.14658</v>
+        <v>4524.76716</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>4370.07785</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>3993.58683</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>5318.594</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>1535.96483</v>
+        <v>0</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>450.87427</v>
+        <v>448.97839</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>49.18798</v>
+        <v>74.37685999999999</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>9.014010000000001</v>
+        <v>39.00716000000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>43.14867</v>
+        <v>43.49242</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>108.29901</v>
+        <v>0</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>355.36204</v>
+        <v>0.67655</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>56.50017</v>
+        <v>38.23097</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>12.1391</v>
+        <v>0</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>11.59716</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>363.29499</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>8.571999999999999</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>257.37471</v>
+        <v>252.93817</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>209.42616</v>
+        <v>188.76989</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>16.58574</v>
+        <v>37.22691</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>32.56106</v>
+        <v>35.87335</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>52.67609</v>
+        <v>767.6929699999999</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>303.40929</v>
+        <v>303.40194</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1621.39385</v>
+        <v>1628.73582</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>74.82611999999999</v>
+        <v>139.72487</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>1746.12689</v>
+        <v>1738.42416</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>159.55597</v>
+        <v>168.72318</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1293.81366</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>48.71077</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>43.531</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>717.2066100000001</v>
+        <v>740.01404</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>730.09898</v>
+        <v>439.4959499999999</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>5672.24412</v>
+        <v>6379.7432</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>951.57745</v>
+        <v>1162.1719</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>3065.85898</v>
+        <v>3136.88943</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>4279.220689999999</v>
+        <v>3628.74595</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>839.1328199999999</v>
+        <v>290.3265500000001</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>4629.34813</v>
+        <v>4747.05788</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>1267.17084</v>
+        <v>2235.23542</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3975.99345</v>
+        <v>4344.44682</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2712.9692</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>3581.58107</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>5266.491</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>6258.19292</v>
+        <v>5757.40762</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>10811.87115</v>
+        <v>9620.28455</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>5547.7187</v>
+        <v>4200.03786</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>8432.75656</v>
+        <v>12346.07484</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>7861.37341</v>
+        <v>13491.66418</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>7710.73029</v>
+        <v>9068.285230000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>12512.74982</v>
+        <v>13479.43531</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>5226.28575</v>
+        <v>6086.832399999999</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>6596.691289999999</v>
+        <v>9030.538280000001</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>38799.84384</v>
+        <v>39203.1732</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>40881.40517</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>49324.44046</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>27511.398</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1303.69389</v>
+        <v>1361.63355</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1720.61115</v>
+        <v>1910.11801</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1943.36002</v>
+        <v>2018.81819</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>1973.55927</v>
+        <v>2061.93731</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1558.51662</v>
+        <v>2592.63337</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1405.42406</v>
+        <v>1546.08955</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1764.98204</v>
+        <v>1802.51217</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1158.49206</v>
+        <v>1416.27261</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>2580.13797</v>
+        <v>2791.34228</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>6807.91967</v>
+        <v>7194.51596</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>6614.92536</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>6900.966520000001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>13234.257</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>4954.499029999999</v>
+        <v>4395.77407</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>9091.26</v>
+        <v>7710.16654</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>3604.35868</v>
+        <v>2181.21967</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6459.197289999999</v>
+        <v>10284.13753</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>6302.85679</v>
+        <v>10899.03081</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>6305.30623</v>
+        <v>7522.19568</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>10747.76778</v>
+        <v>11676.92314</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4067.79369</v>
+        <v>4670.55979</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4016.55332</v>
+        <v>6239.196</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>31991.92417</v>
+        <v>32008.65724</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>34266.47981</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>42423.47394</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>14277.141</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D59" s="35" t="n">
+        <v>90</v>
+      </c>
+      <c r="E59" s="35" t="n">
+        <v>87</v>
+      </c>
+      <c r="F59" s="35" t="n">
+        <v>107</v>
+      </c>
+      <c r="G59" s="35" t="n">
+        <v>116</v>
+      </c>
+      <c r="H59" s="35" t="n">
+        <v>107</v>
+      </c>
+      <c r="I59" s="35" t="n">
         <v>108</v>
       </c>
-      <c r="E59" s="35" t="n">
-        <v>113</v>
-      </c>
-      <c r="F59" s="35" t="n">
-        <v>125</v>
-      </c>
-      <c r="G59" s="35" t="n">
-        <v>145</v>
-      </c>
-      <c r="H59" s="35" t="n">
-        <v>143</v>
-      </c>
-      <c r="I59" s="35" t="n">
-        <v>152</v>
-      </c>
       <c r="J59" s="35" t="n">
-        <v>152</v>
+        <v>111</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>110</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>